--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/12.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/12.xlsx
@@ -479,13 +479,13 @@
         <v>-8.507597747286603</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.63067277733222</v>
+        <v>-21.63610935296823</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.06297543215666694</v>
+        <v>-0.05671261436014889</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.921503866512134</v>
+        <v>-8.930597419284597</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-8.439792203575017</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.77704475392079</v>
+        <v>-21.7818310916435</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1965724338019848</v>
+        <v>-0.1905296213144779</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.432251171326222</v>
+        <v>-8.439257118166511</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-8.216501418212752</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.95186586146793</v>
+        <v>-21.95484326664988</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3566140735904456</v>
+        <v>-0.3521895223758876</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.32712285666695</v>
+        <v>-8.333928354225696</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-7.842373002099237</v>
       </c>
       <c r="E5" t="n">
-        <v>-22.06899668798548</v>
+        <v>-22.07175897686529</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.38407073615504</v>
+        <v>-0.3808391026160092</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.794724675880513</v>
+        <v>-7.797555410856457</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-7.331071156627582</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.99342241983671</v>
+        <v>-21.99434644213455</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5063496869034497</v>
+        <v>-0.5032402785360919</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.101194606774293</v>
+        <v>-7.103947117640367</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-6.709263892341454</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.26243513368184</v>
+        <v>-22.26307070457453</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6580360139563529</v>
+        <v>-0.6559190739829788</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.509179876252695</v>
+        <v>-6.50955144077458</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-6.005447055947828</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.6496298105209</v>
+        <v>-22.65006982113892</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.8281636749112593</v>
+        <v>-0.8262276281919609</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.089263076453371</v>
+        <v>-6.088339054155523</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-5.245279398495241</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.91774294710251</v>
+        <v>-22.91628602305617</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.9580303643171211</v>
+        <v>-0.9578934721248474</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.762286297194098</v>
+        <v>-5.760184024241325</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-4.456615437477346</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.36237367661409</v>
+        <v>-23.35928871328107</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.056744301967001</v>
+        <v>-1.05614295412237</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.461675931968099</v>
+        <v>-5.458845196992155</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-3.670949192851525</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.77136843507273</v>
+        <v>-23.7662300888556</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.319836428496295</v>
+        <v>-1.320349774217321</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.069470023090449</v>
+        <v>-5.067524198357416</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-2.910589239909496</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.23632765513694</v>
+        <v>-24.23065151816446</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.239866943174167</v>
+        <v>-1.24122608708317</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.912268896291665</v>
+        <v>-4.911687104474502</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-2.190075409072326</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.82099420833757</v>
+        <v>-24.81349936081059</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.172462205500011</v>
+        <v>-1.174324917116305</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.842326764053579</v>
+        <v>-4.844404591972019</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-1.529469678856972</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.42128602748485</v>
+        <v>-25.41383029201281</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.10648994683786</v>
+        <v>-1.109002896367455</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.713472099069169</v>
+        <v>-4.717050852095751</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.935341588001683</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.03432837654105</v>
+        <v>-26.02533260390593</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.06427337254205</v>
+        <v>-1.06709432950426</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.734338380377162</v>
+        <v>-4.738806932653523</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.4073059226320409</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.80752725704708</v>
+        <v>-26.79774435430639</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9708297842947043</v>
+        <v>-0.9745209844792252</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.690332429568061</v>
+        <v>-4.697328598394616</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.0527360054550129</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.56384439684166</v>
+        <v>-27.55386593382629</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8470890204930871</v>
+        <v>-0.8504966582793267</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.722238088381548</v>
+        <v>-4.730084944402947</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.4488402622864697</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.44933643157043</v>
+        <v>-28.44075133551213</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6774258151905376</v>
+        <v>-0.6804814444823595</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.980079421535775</v>
+        <v>-4.988263619030991</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.7871785501104701</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.09778496835683</v>
+        <v>-29.08746183035733</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.4259548579839004</v>
+        <v>-0.4291522684748627</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.278098613122309</v>
+        <v>-5.289377551964282</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.070714576046509</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.52019271715485</v>
+        <v>-29.51014091903647</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.2221859407777522</v>
+        <v>-0.2254371303442507</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.600836623427966</v>
+        <v>-5.612756022169505</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.300438792319645</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.11646088365066</v>
+        <v>-30.10727932875459</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1906711331057475</v>
+        <v>0.1873857204911806</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.930942367082063</v>
+        <v>-5.945731612854481</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.478298149747453</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.67199628943477</v>
+        <v>-30.66163403938035</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2490067630417767</v>
+        <v>0.2470364932744099</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.201915572680824</v>
+        <v>-6.216387033006892</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.605582424432112</v>
       </c>
       <c r="E23" t="n">
-        <v>-30.99697590938891</v>
+        <v>-30.98586319678041</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5334491825588883</v>
+        <v>0.5315229138533238</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.499357861457063</v>
+        <v>-6.515457361069814</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.682556845082726</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.20252931410148</v>
+        <v>-31.18985945280587</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7243453446844494</v>
+        <v>0.7213630504956313</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.762542879116829</v>
+        <v>-6.778534820578507</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.712486180322202</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.49984204419574</v>
+        <v>-31.48566881328856</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9650262637358054</v>
+        <v>0.9628408776662944</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.820008265830547</v>
+        <v>-6.837823806853585</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.699311789814522</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.41215770603763</v>
+        <v>-31.39871293715361</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9978901678952077</v>
+        <v>0.9979977260462798</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.003248243202519</v>
+        <v>-7.019401521890806</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.645562065172101</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.5114192124566</v>
+        <v>-31.49713353439147</v>
       </c>
       <c r="F27" t="n">
-        <v>1.242325844220354</v>
+        <v>1.241245373702766</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.261441584851164</v>
+        <v>-7.276695286275939</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.553938462554861</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.33334691534296</v>
+        <v>-31.3198557008937</v>
       </c>
       <c r="F28" t="n">
-        <v>1.401824804246588</v>
+        <v>1.40023587701484</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.446769168155309</v>
+        <v>-7.463274455338015</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.427054072385278</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.13698484354018</v>
+        <v>-31.12327362378192</v>
       </c>
       <c r="F29" t="n">
-        <v>1.422637306479045</v>
+        <v>1.420691481746012</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.751026732504028</v>
+        <v>-7.768465819998313</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.265374623601133</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.03180763881224</v>
+        <v>-31.01727751040377</v>
       </c>
       <c r="F30" t="n">
-        <v>1.552005317184481</v>
+        <v>1.550440834987068</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.793756652520864</v>
+        <v>-7.812579328958487</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.068180477534575</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.7488319213552</v>
+        <v>-30.73484447270896</v>
       </c>
       <c r="F31" t="n">
-        <v>1.455633213823853</v>
+        <v>1.453350047617004</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.733455641824335</v>
+        <v>-7.751183180723769</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.8355952604702033</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.34168031848539</v>
+        <v>-30.32637283798509</v>
       </c>
       <c r="F32" t="n">
-        <v>1.435221610154484</v>
+        <v>1.434048248506424</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.727036375808075</v>
+        <v>-7.745766161115227</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.5645077948645132</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.84789551393385</v>
+        <v>-29.83451430213911</v>
       </c>
       <c r="F33" t="n">
-        <v>1.375140604766966</v>
+        <v>1.372784103457113</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.979167348941746</v>
+        <v>-7.996347319072085</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.2517858948415307</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.27454212262327</v>
+        <v>-29.26232449446285</v>
       </c>
       <c r="F34" t="n">
-        <v>1.37673442100558</v>
+        <v>1.37475437322448</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.989869384973423</v>
+        <v>-8.00793915435354</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-0.1031332151989646</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.79362518414545</v>
+        <v>-28.77924661494985</v>
       </c>
       <c r="F35" t="n">
-        <v>1.393019702879274</v>
+        <v>1.39150411075053</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.962955402171056</v>
+        <v>-7.979895810964917</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-0.5016895976697401</v>
       </c>
       <c r="E36" t="n">
-        <v>-28.16110503173146</v>
+        <v>-28.14660179286075</v>
       </c>
       <c r="F36" t="n">
-        <v>1.319616153779413</v>
+        <v>1.31838412404895</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.785420895812774</v>
+        <v>-7.802121743270155</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-0.9457268149727679</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.5180001794506</v>
+        <v>-27.50526187205885</v>
       </c>
       <c r="F37" t="n">
-        <v>1.408708525915204</v>
+        <v>1.407364049026802</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.694588037232361</v>
+        <v>-7.709152388688901</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-1.433864627306521</v>
       </c>
       <c r="E38" t="n">
-        <v>-26.93444098630533</v>
+        <v>-26.92105977451059</v>
       </c>
       <c r="F38" t="n">
-        <v>1.242394290316491</v>
+        <v>1.240355574452987</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.621888505121336</v>
+        <v>-7.634155023350425</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-1.961502544098319</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.16494797300442</v>
+        <v>-26.15200188282083</v>
       </c>
       <c r="F39" t="n">
-        <v>1.326993665141587</v>
+        <v>1.325385181882372</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.532845023054214</v>
+        <v>-7.54484753491249</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-2.52677020409038</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.53479409991402</v>
+        <v>-25.52468363371324</v>
       </c>
       <c r="F40" t="n">
-        <v>1.32239310967982</v>
+        <v>1.320941074640347</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.192487032000196</v>
+        <v>-7.201370357477381</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.124059407258009</v>
       </c>
       <c r="E41" t="n">
-        <v>-24.960722024594</v>
+        <v>-24.95059200236575</v>
       </c>
       <c r="F41" t="n">
-        <v>1.379418485775516</v>
+        <v>1.378421128374666</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.179130265239785</v>
+        <v>-7.188111370854307</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-3.739128765826191</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.28326212105933</v>
+        <v>-24.27402189808086</v>
       </c>
       <c r="F42" t="n">
-        <v>1.375844621755802</v>
+        <v>1.37416769240045</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.916126140834095</v>
+        <v>-6.924672124837462</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-4.366379085749476</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.60144122339937</v>
+        <v>-23.59261167699772</v>
       </c>
       <c r="F43" t="n">
-        <v>1.32887593278535</v>
+        <v>1.327678126102956</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.850007211965937</v>
+        <v>-6.85577135106203</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.997831680520038</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.912912608318</v>
+        <v>-22.90504130726227</v>
       </c>
       <c r="F44" t="n">
-        <v>1.44066307479736</v>
+        <v>1.439607049314106</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.769328820648107</v>
+        <v>-6.775664973547628</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-5.618428175117054</v>
       </c>
       <c r="E45" t="n">
-        <v>-22.08184499803173</v>
+        <v>-22.07442348560776</v>
       </c>
       <c r="F45" t="n">
-        <v>1.484268127043374</v>
+        <v>1.482952984196174</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.610690325830451</v>
+        <v>-6.615315326326551</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-6.223131066351591</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.55933727813706</v>
+        <v>-21.55214554903583</v>
       </c>
       <c r="F46" t="n">
-        <v>1.473448754846892</v>
+        <v>1.471219367715578</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.498678289502562</v>
+        <v>-6.502413490748885</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-6.806741947206564</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.86821260040936</v>
+        <v>-20.86097687024633</v>
       </c>
       <c r="F47" t="n">
-        <v>1.557617897067699</v>
+        <v>1.555383620929519</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.474463038490732</v>
+        <v>-6.478320464908728</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-7.357411782054304</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.22214500996716</v>
+        <v>-20.21382880928653</v>
       </c>
       <c r="F48" t="n">
-        <v>1.603877680042449</v>
+        <v>1.601555401780664</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.44546633876306</v>
+        <v>-6.447681058873772</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-7.866034684060404</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.4544389286761</v>
+        <v>-19.44775565628903</v>
       </c>
       <c r="F49" t="n">
-        <v>1.748303831897983</v>
+        <v>1.746827351824175</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.201847126584688</v>
+        <v>-6.202624478676527</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-8.330067643100792</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.05080741075047</v>
+        <v>-19.04287744161234</v>
       </c>
       <c r="F50" t="n">
-        <v>1.738002694429393</v>
+        <v>1.735416409796795</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.217736398902161</v>
+        <v>-6.218000405272975</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-8.741061426398439</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.47429083199699</v>
+        <v>-18.46678131744941</v>
       </c>
       <c r="F51" t="n">
-        <v>1.717840430110236</v>
+        <v>1.715503484827851</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.278702314532591</v>
+        <v>-6.28038413289481</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-9.086913225087248</v>
       </c>
       <c r="E52" t="n">
-        <v>-18.01221123697739</v>
+        <v>-18.00606086633881</v>
       </c>
       <c r="F52" t="n">
-        <v>1.719180017991771</v>
+        <v>1.717967544288776</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.281102816904246</v>
+        <v>-6.281146817966048</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-9.368656838223288</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.60816415346807</v>
+        <v>-17.60228267820718</v>
       </c>
       <c r="F53" t="n">
-        <v>1.805827886694104</v>
+        <v>1.805084757650333</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.187918346020847</v>
+        <v>-6.188148129343592</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-9.581193690641339</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.97847473603003</v>
+        <v>-16.97278882104381</v>
       </c>
       <c r="F54" t="n">
-        <v>1.859059393461074</v>
+        <v>1.857773584655076</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.192289118159869</v>
+        <v>-6.192406454324675</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-9.711659483697927</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.77353734618269</v>
+        <v>-16.76876078647371</v>
       </c>
       <c r="F55" t="n">
-        <v>1.850396073292901</v>
+        <v>1.84978005842767</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.420043503055102</v>
+        <v>-6.417960786129796</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-9.762601469734827</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.2236365208127</v>
+        <v>-16.21993065360758</v>
       </c>
       <c r="F56" t="n">
-        <v>1.886296050716658</v>
+        <v>1.886985400684893</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.321432234549428</v>
+        <v>-6.321011779958873</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-9.733581185780082</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.12875556454648</v>
+        <v>-16.12529903669157</v>
       </c>
       <c r="F57" t="n">
-        <v>1.926332127949824</v>
+        <v>1.927075256993595</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.502164151398672</v>
+        <v>-6.499778316047617</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-9.617790090316598</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.9152526346683</v>
+        <v>-15.91299391349579</v>
       </c>
       <c r="F58" t="n">
-        <v>1.81461343203395</v>
+        <v>1.816945488309469</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.658988824668703</v>
+        <v>-6.657610124732233</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-9.418066877957591</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.66100472156126</v>
+        <v>-15.6597726918308</v>
       </c>
       <c r="F59" t="n">
-        <v>1.869893432678158</v>
+        <v>1.87112546240862</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.425499634718579</v>
+        <v>-6.424648947523735</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-9.140014914044958</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.43877002541877</v>
+        <v>-15.43780689106599</v>
       </c>
       <c r="F60" t="n">
-        <v>1.934286542122295</v>
+        <v>1.934731441747184</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.444493426396543</v>
+        <v>-6.441926697791414</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.782875135466949</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.29830885813231</v>
+        <v>-15.29917421234775</v>
       </c>
       <c r="F61" t="n">
-        <v>1.881167482513264</v>
+        <v>1.882443513305528</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.285092246507649</v>
+        <v>-6.284715792978896</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.347005876234888</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.27182510793423</v>
+        <v>-15.27251934690933</v>
       </c>
       <c r="F62" t="n">
-        <v>1.876298031673816</v>
+        <v>1.877300278081534</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.366870664370535</v>
+        <v>-6.366068867244361</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.843381542448828</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.22413284594747</v>
+        <v>-15.22519376043759</v>
       </c>
       <c r="F63" t="n">
-        <v>1.862848373782933</v>
+        <v>1.863581724812971</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.399807903632941</v>
+        <v>-6.39846342674454</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.275390381206158</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.27410338513421</v>
+        <v>-15.27493451630158</v>
       </c>
       <c r="F64" t="n">
-        <v>1.708751766344641</v>
+        <v>1.710453140734328</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.391398811821847</v>
+        <v>-6.390391676407263</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-6.644126257083732</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.32851803156297</v>
+        <v>-15.33109453818184</v>
       </c>
       <c r="F65" t="n">
-        <v>1.700352452547281</v>
+        <v>1.70105158052925</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.49410217907513</v>
+        <v>-6.492875038351534</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-5.963611818893736</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.33798803786419</v>
+        <v>-15.34095566503241</v>
       </c>
       <c r="F66" t="n">
-        <v>1.794793398195477</v>
+        <v>1.794871622305348</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.446248579861766</v>
+        <v>-6.445485894790528</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.240761494923852</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.22261236481186</v>
+        <v>-15.22676802064874</v>
       </c>
       <c r="F67" t="n">
-        <v>1.618026465915301</v>
+        <v>1.617874906702426</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.199554182364104</v>
+        <v>-6.198415043764113</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-4.481168355894789</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.35691827245288</v>
+        <v>-15.36148949387345</v>
       </c>
       <c r="F68" t="n">
-        <v>1.581955373251202</v>
+        <v>1.583402519283809</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.321002001945139</v>
+        <v>-6.319662414063604</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-3.695328905535695</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.27002106440034</v>
+        <v>-15.27526696876854</v>
       </c>
       <c r="F69" t="n">
-        <v>1.541987742114172</v>
+        <v>1.541948630059237</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.194239831899768</v>
+        <v>-6.194943848888604</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-2.890920574358946</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.32279300452181</v>
+        <v>-15.32826869221276</v>
       </c>
       <c r="F70" t="n">
-        <v>1.476108374582493</v>
+        <v>1.477315959278621</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.131704545065059</v>
+        <v>-6.13146498372858</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-2.073637495463862</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.35055278551216</v>
+        <v>-15.35691338344601</v>
       </c>
       <c r="F71" t="n">
-        <v>1.367983098713802</v>
+        <v>1.369449800773877</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.138187368170589</v>
+        <v>-6.138172701149988</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-1.247913501695032</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.46902319991124</v>
+        <v>-15.47488511914467</v>
       </c>
       <c r="F72" t="n">
-        <v>1.290169665419984</v>
+        <v>1.291455474225983</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.002282755284086</v>
+        <v>-6.001578738295251</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.4193467198341455</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.58024321712669</v>
+        <v>-15.58687759944509</v>
       </c>
       <c r="F73" t="n">
-        <v>1.223165826308915</v>
+        <v>1.223845398263416</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.153465514629698</v>
+        <v>-6.152688162537858</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.4091796529149322</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.69162946057561</v>
+        <v>-15.69702692415669</v>
       </c>
       <c r="F74" t="n">
-        <v>1.084924268140028</v>
+        <v>1.085374056771784</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.067145209387447</v>
+        <v>-6.066323856233805</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>1.236296328535466</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.95143128548347</v>
+        <v>-15.95822211602162</v>
       </c>
       <c r="F75" t="n">
-        <v>1.030274949381652</v>
+        <v>1.032000768805673</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.104912787434365</v>
+        <v>-6.104433664761407</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>2.057514221474131</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.97568564855024</v>
+        <v>-15.98354228258537</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8093211730382981</v>
+        <v>0.8095851794091116</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.233425221938091</v>
+        <v>-6.235346601636789</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>2.869611732950622</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.02655087599362</v>
+        <v>-16.03305814413348</v>
       </c>
       <c r="F77" t="n">
-        <v>0.6660048257415533</v>
+        <v>0.66659639557245</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.171716177263891</v>
+        <v>-6.174962477823523</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>3.665405065318285</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.16062211130503</v>
+        <v>-16.16538889300027</v>
       </c>
       <c r="F78" t="n">
-        <v>0.6847786121105067</v>
+        <v>0.6855608532092131</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.144220402644361</v>
+        <v>-6.147980048925019</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>4.438608704286026</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.28950611033064</v>
+        <v>-16.29557336785248</v>
       </c>
       <c r="F79" t="n">
-        <v>0.3983414777916937</v>
+        <v>0.3995050614260195</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.166372492758353</v>
+        <v>-6.169843687633862</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>5.181889401706771</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.75932989222743</v>
+        <v>-16.76327532076904</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3786583361454942</v>
+        <v>0.3791227917978511</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.135557082476188</v>
+        <v>-6.139683404271864</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>5.87963833945458</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.21712182822475</v>
+        <v>-17.21938054939726</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2134294600712366</v>
+        <v>0.215301949701265</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.242817004129435</v>
+        <v>-6.247461560653004</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>6.525028352813949</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.64839579097592</v>
+        <v>-17.65039050577762</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.09195746486373875</v>
+        <v>-0.09023164543971778</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.293794678730757</v>
+        <v>-6.298639684535869</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>7.108333398031577</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.12261967905294</v>
+        <v>-18.12352903433018</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.1037008593580685</v>
+        <v>-0.1023857165108683</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.347651978376692</v>
+        <v>-6.353719235898533</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>7.614894854661933</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.89836817664006</v>
+        <v>-18.89970287551473</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.2000142946362929</v>
+        <v>-0.1993885017573278</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.380090538938673</v>
+        <v>-6.387565830438186</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>8.03663616948344</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.58710701901671</v>
+        <v>-19.58881817142013</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.3578118802728398</v>
+        <v>-0.3571518643458063</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.482666792013416</v>
+        <v>-6.490083415430526</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>8.368483372404159</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.23583911820138</v>
+        <v>-20.23626446179881</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.519730898698196</v>
+        <v>-0.5189291015720219</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.740933468765064</v>
+        <v>-6.74845276132638</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>8.602226150231933</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.98644345347197</v>
+        <v>-20.98728436265308</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.6207915596441949</v>
+        <v>-0.6195986419686677</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.075013975001964</v>
+        <v>-7.082259483178731</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>8.731229656213488</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.83449058460704</v>
+        <v>-21.83483281508772</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7364019050261327</v>
+        <v>-0.7361721217033876</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.371468684391085</v>
+        <v>-7.381251587131782</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>8.759047056606953</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.81999214380542</v>
+        <v>-22.81957657822173</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9480030112330785</v>
+        <v>-0.9465607542073387</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.448015864906373</v>
+        <v>-7.457788989633336</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>8.686456166541094</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.87242420701186</v>
+        <v>-23.87009215073634</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.195171642396831</v>
+        <v>-1.19358760417195</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.812295766560205</v>
+        <v>-7.822694684166134</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>8.512347158514556</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.08136804704886</v>
+        <v>-25.07846397696991</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.120609398669511</v>
+        <v>-1.118932469314159</v>
       </c>
       <c r="G91" t="n">
-        <v>-8.184163406871491</v>
+        <v>-8.194215204989867</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>8.250018631856094</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.34706836780387</v>
+        <v>-26.34442341508887</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.330983364152861</v>
+        <v>-1.329413992948581</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.471793458865831</v>
+        <v>-8.480065658484651</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>7.909890276968633</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.59955125849417</v>
+        <v>-27.59448135837318</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.622588178730003</v>
+        <v>-1.621644600404688</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.776491033832571</v>
+        <v>-8.783418756562989</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>7.497743676572663</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.09567047288689</v>
+        <v>-29.09047345858735</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.864007337818263</v>
+        <v>-1.863645551310112</v>
       </c>
       <c r="G94" t="n">
-        <v>-9.111847570861734</v>
+        <v>-9.118833961674556</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>7.033194055717932</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.73175217586564</v>
+        <v>-30.72808053170858</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.12348159926604</v>
+        <v>-2.12375049464372</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.380870062720597</v>
+        <v>-9.386375084452743</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>6.52858861260806</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.56644489380594</v>
+        <v>-32.5609838731356</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.144113208244421</v>
+        <v>-2.145839027668442</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.731455856140201</v>
+        <v>-9.736320417972781</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>5.999763092524535</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.28624595037375</v>
+        <v>-34.28152561424374</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.507073078044187</v>
+        <v>-2.510578495967765</v>
       </c>
       <c r="G97" t="n">
-        <v>-10.09383882312967</v>
+        <v>-10.0983415984541</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>5.444362043480413</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.27194053440559</v>
+        <v>-36.26746953762579</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.901259034702939</v>
+        <v>-2.904872010777589</v>
       </c>
       <c r="G98" t="n">
-        <v>-10.51471386827491</v>
+        <v>-10.51639079763026</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>4.897373502959939</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.30110816749804</v>
+        <v>-38.2976638621603</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.178939957723107</v>
+        <v>-3.182900053285308</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.84563607607578</v>
+        <v>-10.84610542073501</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>4.328616575654659</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.50081902712908</v>
+        <v>-40.49629914028062</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.541748268309998</v>
+        <v>-3.545845256064473</v>
       </c>
       <c r="G100" t="n">
-        <v>-11.03603844850779</v>
+        <v>-11.03892785156613</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>3.787798017503463</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.41195625644047</v>
+        <v>-42.40643167868085</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.969135470601969</v>
+        <v>-3.972210655921259</v>
       </c>
       <c r="G101" t="n">
-        <v>-11.28124169891104</v>
+        <v>-11.28324130271961</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>3.196260276349812</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.68090034231389</v>
+        <v>-44.67667868488432</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.214759175595776</v>
+        <v>-4.218929498453255</v>
       </c>
       <c r="G102" t="n">
-        <v>-11.42598074720605</v>
+        <v>-11.42911460060775</v>
       </c>
     </row>
   </sheetData>
